--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.66028161422815</v>
+        <v>106.4039986773689</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2041763694512</v>
+        <v>145.5866452034351</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.0183742738758</v>
+        <v>131.6920601173986</v>
       </c>
       <c r="AD2" t="n">
-        <v>85660.28161422815</v>
+        <v>106403.9986773689</v>
       </c>
       <c r="AE2" t="n">
-        <v>117204.1763694512</v>
+        <v>145586.6452034351</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.532967614464396e-06</v>
+        <v>7.663206660884722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.471450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>106018.3742738758</v>
+        <v>131692.0601173986</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.989857552019</v>
+        <v>99.0626284566178</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.026722603458</v>
+        <v>135.5418585890125</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.14838276203189</v>
+        <v>122.6059338395067</v>
       </c>
       <c r="AD3" t="n">
-        <v>67989.85755201901</v>
+        <v>99062.62845661781</v>
       </c>
       <c r="AE3" t="n">
-        <v>93026.72260345799</v>
+        <v>135541.8585890125</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.073696998078788e-06</v>
+        <v>8.577336512822683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>84148.38276203189</v>
+        <v>122605.9338395067</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.73834720338665</v>
+        <v>96.83423154508608</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.9967921005772</v>
+        <v>132.4928676247229</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.97604562644791</v>
+        <v>119.8479342935623</v>
       </c>
       <c r="AD2" t="n">
-        <v>76738.34720338666</v>
+        <v>96834.23154508608</v>
       </c>
       <c r="AE2" t="n">
-        <v>104996.7921005772</v>
+        <v>132492.8676247229</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.081768201008864e-06</v>
+        <v>8.800560472620692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.124228395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>94976.04562644791</v>
+        <v>119847.9342935623</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.0836723527365</v>
+        <v>95.17955669443592</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.7327929708164</v>
+        <v>130.2288684949621</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.92811939608804</v>
+        <v>117.8000080632024</v>
       </c>
       <c r="AD3" t="n">
-        <v>75083.6723527365</v>
+        <v>95179.55669443592</v>
       </c>
       <c r="AE3" t="n">
-        <v>102732.7929708164</v>
+        <v>130228.8684949621</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.235738127899677e-06</v>
+        <v>9.067204207433034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.00462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>92928.11939608803</v>
+        <v>117800.0080632024</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.30425487699792</v>
+        <v>97.56501086057202</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.1933831274964</v>
+        <v>133.4927521238783</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.01282165009304</v>
+        <v>120.7523912194653</v>
       </c>
       <c r="AD2" t="n">
-        <v>70304.25487699792</v>
+        <v>97565.01086057202</v>
       </c>
       <c r="AE2" t="n">
-        <v>96193.3831274964</v>
+        <v>133492.7521238783</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.056696468367814e-06</v>
+        <v>9.56835786724676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.625771604938271</v>
       </c>
       <c r="AH2" t="n">
-        <v>87012.82165009304</v>
+        <v>120752.3912194653</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.45397419149138</v>
+        <v>90.36198440341546</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.76647981562195</v>
+        <v>123.6372535501018</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.43578419815944</v>
+        <v>111.8374875972878</v>
       </c>
       <c r="AD2" t="n">
-        <v>71453.97419149139</v>
+        <v>90361.98440341547</v>
       </c>
       <c r="AE2" t="n">
-        <v>97766.47981562195</v>
+        <v>123637.2535501018</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.233874001041092e-06</v>
+        <v>9.534981764461759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.274691358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>88435.78419815944</v>
+        <v>111837.4875972878</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.79394844917972</v>
+        <v>97.39933789186517</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.1776005286822</v>
+        <v>133.2660710591182</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.75784356597738</v>
+        <v>120.547344277377</v>
       </c>
       <c r="AD2" t="n">
-        <v>79793.94844917972</v>
+        <v>97399.33789186517</v>
       </c>
       <c r="AE2" t="n">
-        <v>109177.6005286822</v>
+        <v>133266.0710591182</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.725937992391164e-06</v>
+        <v>9.261315765655355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>98757.84356597738</v>
+        <v>120547.3442773769</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.0115354091207</v>
+        <v>100.277697043132</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.4753126065325</v>
+        <v>137.2043690341232</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.02714242095922</v>
+        <v>124.1097766210846</v>
       </c>
       <c r="AD2" t="n">
-        <v>80011.5354091207</v>
+        <v>100277.697043132</v>
       </c>
       <c r="AE2" t="n">
-        <v>109475.3126065325</v>
+        <v>137204.3690341232</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861672564628043e-06</v>
+        <v>8.364416283436577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99027.14242095922</v>
+        <v>124109.7766210846</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.05339554576135</v>
+        <v>96.31955717977266</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.0596110246803</v>
+        <v>131.788667452271</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.12830779709238</v>
+        <v>119.2109419972178</v>
       </c>
       <c r="AD3" t="n">
-        <v>76053.39554576135</v>
+        <v>96319.55717977266</v>
       </c>
       <c r="AE3" t="n">
-        <v>104059.6110246803</v>
+        <v>131788.667452271</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.184290864522294e-06</v>
+        <v>8.91947500553226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.008487654320988</v>
       </c>
       <c r="AH3" t="n">
-        <v>94128.30779709238</v>
+        <v>119210.9419972178</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.73653306203434</v>
+        <v>106.5889595107978</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.4672863798875</v>
+        <v>145.8397167756285</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.92444360962952</v>
+        <v>131.92097889393</v>
       </c>
       <c r="AD2" t="n">
-        <v>80736.53306203434</v>
+        <v>106588.9595107978</v>
       </c>
       <c r="AE2" t="n">
-        <v>110467.2863798875</v>
+        <v>145839.7167756284</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.444995343687075e-06</v>
+        <v>8.910706039688229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.594135802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>99924.44360962952</v>
+        <v>131920.97889393</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.79880596342483</v>
+        <v>92.34205810603387</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.60653797577086</v>
+        <v>126.3464777447096</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.10022979004215</v>
+        <v>114.2881472371831</v>
       </c>
       <c r="AD2" t="n">
-        <v>72798.80596342482</v>
+        <v>92342.05810603387</v>
       </c>
       <c r="AE2" t="n">
-        <v>99606.53797577086</v>
+        <v>126346.4777447096</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.299832793461225e-06</v>
+        <v>9.386397691364548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.074074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>90100.22979004215</v>
+        <v>114288.1472371831</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.28418539895044</v>
+        <v>94.20331744058089</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6388996497718</v>
+        <v>128.8931348792021</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.93862571831461</v>
+        <v>116.5917549890162</v>
       </c>
       <c r="AD2" t="n">
-        <v>74284.18539895045</v>
+        <v>94203.31744058088</v>
       </c>
       <c r="AE2" t="n">
-        <v>101638.8996497718</v>
+        <v>128893.1348792021</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.252013490593591e-06</v>
+        <v>9.159052925955947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>91938.62571831461</v>
+        <v>116591.7549890161</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.40311331023499</v>
+        <v>94.32224535186542</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8016220647203</v>
+        <v>129.0558572941507</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.08581813436288</v>
+        <v>116.7389474050644</v>
       </c>
       <c r="AD3" t="n">
-        <v>74403.11331023498</v>
+        <v>94322.24535186542</v>
       </c>
       <c r="AE3" t="n">
-        <v>101801.6220647203</v>
+        <v>129055.8572941507</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.254646078809427e-06</v>
+        <v>9.163643929928856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>92085.81813436288</v>
+        <v>116738.9474050644</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.03938495594359</v>
+        <v>103.6289842576215</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.6181499357879</v>
+        <v>141.7897480493426</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.7745931700206</v>
+        <v>128.2575334987128</v>
       </c>
       <c r="AD2" t="n">
-        <v>83039.38495594359</v>
+        <v>103628.9842576215</v>
       </c>
       <c r="AE2" t="n">
-        <v>113618.1499357879</v>
+        <v>141789.7480493426</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.686303680128203e-06</v>
+        <v>7.966405664980236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>102774.5931700206</v>
+        <v>128257.5334987128</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.92255993433403</v>
+        <v>97.76415419673845</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.56639891709442</v>
+        <v>133.765228822005</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.82743031871722</v>
+        <v>120.9988631239463</v>
       </c>
       <c r="AD3" t="n">
-        <v>66922.55993433403</v>
+        <v>97764.15419673844</v>
       </c>
       <c r="AE3" t="n">
-        <v>91566.39891709441</v>
+        <v>133765.228822005</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.144219350828906e-06</v>
+        <v>8.744831956178998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.969907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>82827.43031871722</v>
+        <v>120998.8631239463</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.85468947617201</v>
+        <v>90.98573085245916</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.3147561464324</v>
+        <v>124.4906909594342</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.93173380546817</v>
+        <v>112.6094741380807</v>
       </c>
       <c r="AD2" t="n">
-        <v>71854.68947617202</v>
+        <v>90985.73085245915</v>
       </c>
       <c r="AE2" t="n">
-        <v>98314.7561464324</v>
+        <v>124490.6909594342</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.269109765734999e-06</v>
+        <v>9.501451789452022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.193672839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>88931.73380546817</v>
+        <v>112609.4741380807</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.4562418350468</v>
+        <v>88.87443148797844</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.40133838869011</v>
+        <v>121.6019180249989</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.20092995302551</v>
+        <v>109.9964016380887</v>
       </c>
       <c r="AD2" t="n">
-        <v>70456.24183504679</v>
+        <v>88874.43148797844</v>
       </c>
       <c r="AE2" t="n">
-        <v>96401.33838869011</v>
+        <v>121601.9180249989</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157208858546147e-06</v>
+        <v>9.621703265687696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.463734567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>87200.92995302551</v>
+        <v>109996.4016380887</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.22920103369066</v>
+        <v>97.04432811859678</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.09069114794158</v>
+        <v>132.7803310254068</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.91993044893779</v>
+        <v>120.1079625907424</v>
       </c>
       <c r="AD2" t="n">
-        <v>70229.20103369065</v>
+        <v>97044.32811859678</v>
       </c>
       <c r="AE2" t="n">
-        <v>96090.69114794159</v>
+        <v>132780.3310254068</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.939747418667224e-06</v>
+        <v>9.499317469752762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.818672839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>86919.9304489378</v>
+        <v>120107.9625907424</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.97673774522177</v>
+        <v>117.0976866495087</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.8466303102498</v>
+        <v>160.2182208591267</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.8360045403277</v>
+        <v>144.9272187280611</v>
       </c>
       <c r="AD2" t="n">
-        <v>91976.73774522176</v>
+        <v>117097.6866495087</v>
       </c>
       <c r="AE2" t="n">
-        <v>125846.6303102498</v>
+        <v>160218.2208591267</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.97990244264743e-06</v>
+        <v>8.20894407729451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.419753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>113836.0045403277</v>
+        <v>144927.2187280611</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.89794502942995</v>
+        <v>81.71839696980446</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.69149913384319</v>
+        <v>111.8107158952764</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.60866132179486</v>
+        <v>101.1396580975853</v>
       </c>
       <c r="AD2" t="n">
-        <v>61897.94502942995</v>
+        <v>81718.39696980445</v>
       </c>
       <c r="AE2" t="n">
-        <v>84691.4991338432</v>
+        <v>111810.7158952764</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.432346370789748e-06</v>
+        <v>9.544418279496279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.935185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>76608.66132179486</v>
+        <v>101139.6580975853</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.28462132991527</v>
+        <v>101.7151835287255</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.2172049279497</v>
+        <v>139.1712014611392</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.6027909839822</v>
+        <v>125.8888973217335</v>
       </c>
       <c r="AD2" t="n">
-        <v>81284.62132991527</v>
+        <v>101715.1835287255</v>
       </c>
       <c r="AE2" t="n">
-        <v>111217.2049279497</v>
+        <v>139171.2014611392</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.788163432383842e-06</v>
+        <v>8.187225864973315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.301697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>100602.7909839822</v>
+        <v>125888.8973217335</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.36477565824465</v>
+        <v>96.96781426634767</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.80321386284378</v>
+        <v>132.6756413972067</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.13708257490708</v>
+        <v>120.0132643937249</v>
       </c>
       <c r="AD3" t="n">
-        <v>66364.77565824466</v>
+        <v>96967.81426634768</v>
       </c>
       <c r="AE3" t="n">
-        <v>90803.21386284378</v>
+        <v>132675.6413972067</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.168325524259583e-06</v>
+        <v>8.837260675906627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.98533950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>82137.08257490708</v>
+        <v>120013.2643937249</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2787887653965</v>
+        <v>147.7452512863645</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7295245299743</v>
+        <v>202.1515708703788</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6760400836549</v>
+        <v>182.8585086680789</v>
       </c>
       <c r="AD2" t="n">
-        <v>115278.7887653965</v>
+        <v>147745.2512863645</v>
       </c>
       <c r="AE2" t="n">
-        <v>157729.5245299743</v>
+        <v>202151.5708703788</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.208904567456577e-06</v>
+        <v>6.87816047889482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.2445987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>142676.0400836549</v>
+        <v>182858.508668079</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.72116803889172</v>
+        <v>89.39240464302968</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.7638221085098</v>
+        <v>122.3106317471025</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.52881873537484</v>
+        <v>110.6374767172409</v>
       </c>
       <c r="AD2" t="n">
-        <v>70721.16803889172</v>
+        <v>89392.40464302967</v>
       </c>
       <c r="AE2" t="n">
-        <v>96763.8221085098</v>
+        <v>122310.6317471025</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.223129268994629e-06</v>
+        <v>9.623263300249817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.344135802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>87528.81873537484</v>
+        <v>110637.4767172409</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.61689169246365</v>
+        <v>91.95916882824757</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.35763484475069</v>
+        <v>125.8225917429598</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.87508162450875</v>
+        <v>113.8142601801615</v>
       </c>
       <c r="AD2" t="n">
-        <v>72616.89169246366</v>
+        <v>91959.16882824757</v>
       </c>
       <c r="AE2" t="n">
-        <v>99357.63484475069</v>
+        <v>125822.5917429598</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.258324164816566e-06</v>
+        <v>9.393612376988544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.151234567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>89875.08162450875</v>
+        <v>113814.2601801615</v>
       </c>
     </row>
   </sheetData>
